--- a/Scraping/panddas.xlsx
+++ b/Scraping/panddas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,33 +397,23 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22 березня 2020</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>22 березня 2020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Здоров'я</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Надія є: п'ять причин порадіти під час пандемії коронавірусу</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 AFP
@@ -478,27 +468,27 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>22 березня 2020</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Здоров'я</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Маски: щоб захистити інших, а не вас - МОЗ</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 UNIAN
@@ -518,27 +508,27 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>22 березня 2020</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Здоров'я</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Коронавірус: як у світі запроваджують карантин</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">Копирайт изображения
 GETTY IMAGES
